--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>9.004050416129999</v>
+        <v>69.82120883871467</v>
       </c>
       <c r="R2">
-        <v>81.03645374516999</v>
+        <v>628.3908795484319</v>
       </c>
       <c r="S2">
-        <v>0.0003215113915767716</v>
+        <v>0.001640440117781834</v>
       </c>
       <c r="T2">
-        <v>0.0003215113915767716</v>
+        <v>0.001640440117781834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>736.3417839230445</v>
+        <v>1088.759359861165</v>
       </c>
       <c r="R3">
-        <v>6627.076055307401</v>
+        <v>9798.834238750482</v>
       </c>
       <c r="S3">
-        <v>0.02629286384282307</v>
+        <v>0.02558025795073877</v>
       </c>
       <c r="T3">
-        <v>0.02629286384282307</v>
+        <v>0.02558025795073877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>683.6743026662266</v>
+        <v>1288.197566183357</v>
       </c>
       <c r="R4">
-        <v>6153.06872399604</v>
+        <v>11593.77809565021</v>
       </c>
       <c r="S4">
-        <v>0.02441224407648006</v>
+        <v>0.03026603237531399</v>
       </c>
       <c r="T4">
-        <v>0.02441224407648006</v>
+        <v>0.030266032375314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>118.4171316711289</v>
+        <v>122.9331235278129</v>
       </c>
       <c r="R5">
-        <v>1065.75418504016</v>
+        <v>1106.398111750316</v>
       </c>
       <c r="S5">
-        <v>0.004228370014667047</v>
+        <v>0.002888297567363723</v>
       </c>
       <c r="T5">
-        <v>0.004228370014667047</v>
+        <v>0.002888297567363723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>275.8612427823389</v>
+        <v>416.7057845374014</v>
       </c>
       <c r="R6">
-        <v>2482.75118504105</v>
+        <v>3750.352060836613</v>
       </c>
       <c r="S6">
-        <v>0.00985029269606956</v>
+        <v>0.009790447596602943</v>
       </c>
       <c r="T6">
-        <v>0.00985029269606956</v>
+        <v>0.009790447596602943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H7">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>647.1359739685868</v>
+        <v>1842.738869486832</v>
       </c>
       <c r="R7">
-        <v>5824.223765717281</v>
+        <v>16584.64982538149</v>
       </c>
       <c r="S7">
-        <v>0.02310755470197112</v>
+        <v>0.04329490735522747</v>
       </c>
       <c r="T7">
-        <v>0.02310755470197112</v>
+        <v>0.04329490735522747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>18.411363779871</v>
+        <v>96.55681869144135</v>
       </c>
       <c r="R8">
-        <v>165.702274018839</v>
+        <v>869.0113682229721</v>
       </c>
       <c r="S8">
-        <v>0.0006574222617732429</v>
+        <v>0.002268589754621944</v>
       </c>
       <c r="T8">
-        <v>0.000657422261773243</v>
+        <v>0.002268589754621944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>1505.661988058176</v>
@@ -1013,10 +1013,10 @@
         <v>13550.95789252358</v>
       </c>
       <c r="S9">
-        <v>0.0537633019199482</v>
+        <v>0.03537533036323255</v>
       </c>
       <c r="T9">
-        <v>0.05376330191994821</v>
+        <v>0.03537533036323255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>1397.968215591985</v>
+        <v>1781.468137053414</v>
       </c>
       <c r="R10">
-        <v>12581.71394032787</v>
+        <v>16033.21323348073</v>
       </c>
       <c r="S10">
-        <v>0.04991783537438892</v>
+        <v>0.04185535955590718</v>
       </c>
       <c r="T10">
-        <v>0.04991783537438892</v>
+        <v>0.04185535955590718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>242.1377922385191</v>
+        <v>170.0060986779401</v>
       </c>
       <c r="R11">
-        <v>2179.240130146672</v>
+        <v>1530.054888101461</v>
       </c>
       <c r="S11">
-        <v>0.008646115352316512</v>
+        <v>0.00399427092680517</v>
       </c>
       <c r="T11">
-        <v>0.008646115352316512</v>
+        <v>0.003994270926805169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>564.0774383642261</v>
+        <v>576.2688093555698</v>
       </c>
       <c r="R12">
-        <v>5076.696945278035</v>
+        <v>5186.419284200128</v>
       </c>
       <c r="S12">
-        <v>0.02014174885567683</v>
+        <v>0.01353935987669518</v>
       </c>
       <c r="T12">
-        <v>0.02014174885567683</v>
+        <v>0.01353935987669518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>1323.255121987398</v>
+        <v>2548.351795623066</v>
       </c>
       <c r="R13">
-        <v>11909.29609788658</v>
+        <v>22935.16616060759</v>
       </c>
       <c r="S13">
-        <v>0.047250023713674</v>
+        <v>0.05987319024249661</v>
       </c>
       <c r="T13">
-        <v>0.047250023713674</v>
+        <v>0.05987319024249661</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>27.755802841281</v>
+        <v>176.7021266287853</v>
       </c>
       <c r="R14">
-        <v>249.802225571529</v>
+        <v>1590.319139659068</v>
       </c>
       <c r="S14">
-        <v>0.0009910880529771927</v>
+        <v>0.004151593222752934</v>
       </c>
       <c r="T14">
-        <v>0.0009910880529771929</v>
+        <v>0.004151593222752934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>2269.840397800598</v>
+        <v>2755.410533193003</v>
       </c>
       <c r="R15">
-        <v>20428.56358020538</v>
+        <v>24798.69479873702</v>
       </c>
       <c r="S15">
-        <v>0.08105013979560846</v>
+        <v>0.06473800804637636</v>
       </c>
       <c r="T15">
-        <v>0.08105013979560848</v>
+        <v>0.06473800804637635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>2107.488105404239</v>
+        <v>3260.144779051852</v>
       </c>
       <c r="R16">
-        <v>18967.39294863815</v>
+        <v>29341.30301146667</v>
       </c>
       <c r="S16">
-        <v>0.07525295863361454</v>
+        <v>0.07659667276296475</v>
       </c>
       <c r="T16">
-        <v>0.07525295863361454</v>
+        <v>0.07659667276296475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H17">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>365.0315588866436</v>
+        <v>311.1167039611454</v>
       </c>
       <c r="R17">
-        <v>3285.284029979792</v>
+        <v>2800.050335650309</v>
       </c>
       <c r="S17">
-        <v>0.01303433444317895</v>
+        <v>0.007309646037049516</v>
       </c>
       <c r="T17">
-        <v>0.01303433444317895</v>
+        <v>0.007309646037049515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H18">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>850.3673249653206</v>
+        <v>1054.590711489474</v>
       </c>
       <c r="R18">
-        <v>7653.305924687886</v>
+        <v>9491.316403405264</v>
       </c>
       <c r="S18">
-        <v>0.03036442149537933</v>
+        <v>0.02477747005159511</v>
       </c>
       <c r="T18">
-        <v>0.03036442149537933</v>
+        <v>0.02477747005159511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H19">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>1994.855390058171</v>
+        <v>4663.566879972127</v>
       </c>
       <c r="R19">
-        <v>17953.69851052354</v>
+        <v>41972.10191974914</v>
       </c>
       <c r="S19">
-        <v>0.07123113519034366</v>
+        <v>0.1095698904259442</v>
       </c>
       <c r="T19">
-        <v>0.07123113519034366</v>
+        <v>0.1095698904259442</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H20">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>10.233056665317</v>
+        <v>30.07028289097734</v>
       </c>
       <c r="R20">
-        <v>92.097509987853</v>
+        <v>270.632546018796</v>
       </c>
       <c r="S20">
-        <v>0.0003653960313967355</v>
+        <v>0.0007064973412499284</v>
       </c>
       <c r="T20">
-        <v>0.0003653960313967356</v>
+        <v>0.0007064973412499284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H21">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>836.8486238622958</v>
+        <v>468.9019639698823</v>
       </c>
       <c r="R21">
-        <v>7531.637614760661</v>
+        <v>4220.11767572894</v>
       </c>
       <c r="S21">
-        <v>0.0298817035847646</v>
+        <v>0.0110167899667812</v>
       </c>
       <c r="T21">
-        <v>0.0298817035847646</v>
+        <v>0.0110167899667812</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H22">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>776.9923041825374</v>
+        <v>554.7951099512235</v>
       </c>
       <c r="R22">
-        <v>6992.930737642837</v>
+        <v>4993.155989561012</v>
       </c>
       <c r="S22">
-        <v>0.02774438896017872</v>
+        <v>0.01303483813371806</v>
       </c>
       <c r="T22">
-        <v>0.02774438896017872</v>
+        <v>0.01303483813371806</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H23">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>134.5804568535271</v>
+        <v>52.94428244134145</v>
       </c>
       <c r="R23">
-        <v>1211.224111681744</v>
+        <v>476.498541972073</v>
       </c>
       <c r="S23">
-        <v>0.004805520622641353</v>
+        <v>0.001243918951970235</v>
       </c>
       <c r="T23">
-        <v>0.004805520622641353</v>
+        <v>0.001243918951970235</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H24">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>313.5148737172161</v>
+        <v>179.4649653272457</v>
       </c>
       <c r="R24">
-        <v>2821.633863454945</v>
+        <v>1615.184687945211</v>
       </c>
       <c r="S24">
-        <v>0.01119480663371961</v>
+        <v>0.004216505754565209</v>
       </c>
       <c r="T24">
-        <v>0.01119480663371961</v>
+        <v>0.00421650575456521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H25">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>735.4666828522616</v>
+        <v>793.6224539977309</v>
       </c>
       <c r="R25">
-        <v>6619.200145670354</v>
+        <v>7142.602085979577</v>
       </c>
       <c r="S25">
-        <v>0.02626161624312797</v>
+        <v>0.01864605516810344</v>
       </c>
       <c r="T25">
-        <v>0.02626161624312797</v>
+        <v>0.01864605516810344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H26">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I26">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J26">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>10.221061090542</v>
+        <v>47.33141942857467</v>
       </c>
       <c r="R26">
-        <v>91.989549814878</v>
+        <v>425.982774857172</v>
       </c>
       <c r="S26">
-        <v>0.0003649677003945273</v>
+        <v>0.001112045473769281</v>
       </c>
       <c r="T26">
-        <v>0.0003649677003945274</v>
+        <v>0.001112045473769281</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H27">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I27">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J27">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>835.8676383590179</v>
+        <v>738.0640750207313</v>
       </c>
       <c r="R27">
-        <v>7522.80874523116</v>
+        <v>6642.57667518658</v>
       </c>
       <c r="S27">
-        <v>0.02984667512538253</v>
+        <v>0.01734071836187127</v>
       </c>
       <c r="T27">
-        <v>0.02984667512538254</v>
+        <v>0.01734071836187127</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H28">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I28">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J28">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>776.0814845135707</v>
+        <v>873.2621552390752</v>
       </c>
       <c r="R28">
-        <v>6984.733360622136</v>
+        <v>7859.359397151678</v>
       </c>
       <c r="S28">
-        <v>0.02771186594156919</v>
+        <v>0.02051717947341655</v>
       </c>
       <c r="T28">
-        <v>0.02771186594156919</v>
+        <v>0.02051717947341655</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H29">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I29">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J29">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>134.4226965687716</v>
+        <v>83.33569882470123</v>
       </c>
       <c r="R29">
-        <v>1209.804269118944</v>
+        <v>750.0212894223109</v>
       </c>
       <c r="S29">
-        <v>0.004799887410215481</v>
+        <v>0.00195796128238362</v>
       </c>
       <c r="T29">
-        <v>0.004799887410215483</v>
+        <v>0.00195796128238362</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H30">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I30">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J30">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>313.1473597637855</v>
+        <v>282.4825951067863</v>
       </c>
       <c r="R30">
-        <v>2818.32623787407</v>
+        <v>2542.343355961077</v>
       </c>
       <c r="S30">
-        <v>0.0111816836593769</v>
+        <v>0.006636891415883787</v>
       </c>
       <c r="T30">
-        <v>0.01118168365937691</v>
+        <v>0.006636891415883789</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H31">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I31">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J31">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>734.6045410819949</v>
+        <v>1249.18270221436</v>
       </c>
       <c r="R31">
-        <v>6611.440869737953</v>
+        <v>11242.64431992924</v>
       </c>
       <c r="S31">
-        <v>0.02623083138659292</v>
+        <v>0.02934938327815519</v>
       </c>
       <c r="T31">
-        <v>0.02623083138659292</v>
+        <v>0.0293493832781552</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H32">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I32">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J32">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>26.44654896618</v>
+        <v>194.8977766174573</v>
       </c>
       <c r="R32">
-        <v>238.01894069562</v>
+        <v>1754.079989557116</v>
       </c>
       <c r="S32">
-        <v>0.0009443379776381073</v>
+        <v>0.004579097625884715</v>
       </c>
       <c r="T32">
-        <v>0.0009443379776381075</v>
+        <v>0.004579097625884715</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H33">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I33">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J33">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>2162.770991317379</v>
+        <v>3039.145011060416</v>
       </c>
       <c r="R33">
-        <v>19464.9389218564</v>
+        <v>27352.30509954374</v>
       </c>
       <c r="S33">
-        <v>0.07722696774716555</v>
+        <v>0.07140431228305555</v>
       </c>
       <c r="T33">
-        <v>0.07722696774716556</v>
+        <v>0.07140431228305555</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H34">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I34">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J34">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>2008.076930576827</v>
+        <v>3595.85354749607</v>
       </c>
       <c r="R34">
-        <v>18072.69237519144</v>
+        <v>32362.68192746464</v>
       </c>
       <c r="S34">
-        <v>0.07170324226376992</v>
+        <v>0.08448410612034411</v>
       </c>
       <c r="T34">
-        <v>0.07170324226376992</v>
+        <v>0.08448410612034413</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H35">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I35">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J35">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>347.8128538201956</v>
+        <v>343.1535037377481</v>
       </c>
       <c r="R35">
-        <v>3130.315684381761</v>
+        <v>3088.381533639733</v>
       </c>
       <c r="S35">
-        <v>0.01241949894457419</v>
+        <v>0.008062346433862791</v>
       </c>
       <c r="T35">
-        <v>0.01241949894457419</v>
+        <v>0.008062346433862791</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H36">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I36">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J36">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>810.2551105272556</v>
+        <v>1163.185689001426</v>
       </c>
       <c r="R36">
-        <v>7292.295994745301</v>
+        <v>10468.67120101283</v>
       </c>
       <c r="S36">
-        <v>0.02893211788898181</v>
+        <v>0.02732889476427416</v>
       </c>
       <c r="T36">
-        <v>0.02893211788898181</v>
+        <v>0.02732889476427417</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H37">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I37">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J37">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>1900.757151767787</v>
+        <v>5143.791041761658</v>
       </c>
       <c r="R37">
-        <v>17106.81436591009</v>
+        <v>46294.11937585492</v>
       </c>
       <c r="S37">
-        <v>0.06787113006604237</v>
+        <v>0.1208526939412407</v>
       </c>
       <c r="T37">
-        <v>0.06787113006604237</v>
+        <v>0.1208526939412407</v>
       </c>
     </row>
   </sheetData>
